--- a/public/yonetim/fatura.xlsx
+++ b/public/yonetim/fatura.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>faturatipi</t>
   </si>
@@ -493,19 +493,22 @@
     <t>ticarethane</t>
   </si>
   <si>
+    <t>11 Ağustos 2014</t>
+  </si>
+  <si>
+    <t>printkom ltd</t>
+  </si>
+  <si>
+    <t>TİCARETHANE</t>
+  </si>
+  <si>
+    <t>2014/07</t>
+  </si>
+  <si>
+    <t>25 Mayıs 2014</t>
+  </si>
+  <si>
     <t>10 Temmuz 2014</t>
-  </si>
-  <si>
-    <t>printkom ltd</t>
-  </si>
-  <si>
-    <t>TİCARETHANE</t>
-  </si>
-  <si>
-    <t>2014/07</t>
-  </si>
-  <si>
-    <t>25 Mayıs 2014</t>
   </si>
   <si>
     <t>Kemalettin Kahramanoğlu</t>
@@ -680,7 +683,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 48" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal 48" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -692,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:FA3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BU1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CI2" activeCellId="0" sqref="CI2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1375,34 +1378,34 @@
         <v>162</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="BE2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BG2" s="0" t="n">
         <v>34755</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BJ2" s="3" t="n">
         <v>107.6238555904</v>
       </c>
       <c r="BK2" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BM2" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BN2" s="0" t="n">
         <v>10</v>
@@ -1411,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="BP2" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BQ2" s="0" t="n">
         <v>30</v>
@@ -1420,7 +1423,7 @@
         <v>40</v>
       </c>
       <c r="BS2" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BT2" s="0" t="n">
         <v>50</v>
@@ -1429,7 +1432,7 @@
         <v>60</v>
       </c>
       <c r="BV2" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BW2" s="0" t="n">
         <v>70</v>
@@ -1438,7 +1441,7 @@
         <v>80</v>
       </c>
       <c r="BY2" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BZ2" s="0" t="n">
         <v>90</v>
@@ -1447,7 +1450,7 @@
         <v>100</v>
       </c>
       <c r="CB2" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CC2" s="0" t="n">
         <v>110</v>
@@ -1456,40 +1459,40 @@
         <v>120</v>
       </c>
       <c r="CW2" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CX2" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DG2" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DH2" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DR2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DS2" s="0" t="n">
         <v>11111110</v>
       </c>
       <c r="DT2" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DU2" s="0" t="n">
         <v>11111111</v>
       </c>
       <c r="DV2" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DW2" s="0" t="n">
         <v>10101110</v>
       </c>
       <c r="DX2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
